--- a/runs/run270/NotionalETEOutput270.xlsx
+++ b/runs/run270/NotionalETEOutput270.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_ANGERMAX1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_8.MISSILE_ANGERMAX0_8</t>
+    <t>MISSILE_ANGERMAX1_3.MISSILE_ANGERMAX1_3</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_ANGERMAX1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1508.239783907285</v>
+        <v>-1538.811240969183</v>
       </c>
       <c r="J2">
-        <v>2071.015834232982</v>
+        <v>2044.92165746414</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1444.204069184306</v>
+        <v>-1421.99179230986</v>
       </c>
       <c r="J3">
-        <v>2040.409564815751</v>
+        <v>1939.802208735322</v>
       </c>
       <c r="K3">
-        <v>297.7053913734591</v>
+        <v>289.642073922007</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1505.835901486908</v>
+        <v>-1419.771102551431</v>
       </c>
       <c r="J4">
-        <v>1810.404492297627</v>
+        <v>1861.85299583855</v>
       </c>
       <c r="K4">
-        <v>588.6020434484996</v>
+        <v>567.8160450588107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1364.332747652999</v>
+        <v>-1367.241224682342</v>
       </c>
       <c r="J5">
-        <v>1881.376867042636</v>
+        <v>1791.976046125961</v>
       </c>
       <c r="K5">
-        <v>894.5791476429172</v>
+        <v>827.8286112588627</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1423.837078802356</v>
+        <v>-1395.974870325756</v>
       </c>
       <c r="J6">
-        <v>1833.03476031136</v>
+        <v>1762.814947920408</v>
       </c>
       <c r="K6">
-        <v>1173.473847788601</v>
+        <v>1102.488223773899</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1321.776288549148</v>
+        <v>-1351.894747122466</v>
       </c>
       <c r="J7">
-        <v>1763.064307647844</v>
+        <v>1672.388801887165</v>
       </c>
       <c r="K7">
-        <v>1387.714092452061</v>
+        <v>1341.264371943393</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1342.423936317848</v>
+        <v>-1352.224370438377</v>
       </c>
       <c r="J8">
-        <v>1654.856499319977</v>
+        <v>1683.457361868019</v>
       </c>
       <c r="K8">
-        <v>1633.458535021689</v>
+        <v>1562.543551215266</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.6670215669714</v>
+        <v>-102.6152524232988</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1224.603667611936</v>
+        <v>-1319.060679840016</v>
       </c>
       <c r="J9">
-        <v>1636.029446507813</v>
+        <v>1686.457935447074</v>
       </c>
       <c r="K9">
-        <v>1741.254852047368</v>
+        <v>1823.43406402844</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.7978542676902</v>
+        <v>221.9919985147802</v>
       </c>
       <c r="G10">
-        <v>-81.83241516014881</v>
+        <v>-81.22971180577044</v>
       </c>
       <c r="H10">
-        <v>851.6279202425094</v>
+        <v>878.855327721218</v>
       </c>
       <c r="I10">
-        <v>-1297.513578347312</v>
+        <v>-1280.957046989679</v>
       </c>
       <c r="J10">
-        <v>1565.302324854114</v>
+        <v>1623.746120039985</v>
       </c>
       <c r="K10">
-        <v>1985.093311497946</v>
+        <v>2100.811800746472</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.1748475125887</v>
+        <v>172.5732848846971</v>
       </c>
       <c r="G11">
-        <v>-67.4489975850114</v>
+        <v>-65.91004138000015</v>
       </c>
       <c r="H11">
-        <v>1043.183341487882</v>
+        <v>1086.920777706202</v>
       </c>
       <c r="I11">
-        <v>-1247.265670767543</v>
+        <v>-1248.264411838524</v>
       </c>
       <c r="J11">
-        <v>1519.556051834349</v>
+        <v>1591.815126058883</v>
       </c>
       <c r="K11">
-        <v>2197.058050574254</v>
+        <v>2080.082412227896</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.3561264600747</v>
+        <v>135.9149648571769</v>
       </c>
       <c r="G12">
-        <v>-52.62355903669747</v>
+        <v>-50.87002585589896</v>
       </c>
       <c r="H12">
-        <v>1171.550203495845</v>
+        <v>1234.756617114193</v>
       </c>
       <c r="I12">
-        <v>-1114.928952081822</v>
+        <v>-1220.004991512377</v>
       </c>
       <c r="J12">
-        <v>1588.53587935774</v>
+        <v>1503.296336420098</v>
       </c>
       <c r="K12">
-        <v>2296.596517485185</v>
+        <v>2415.406313479147</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>122.3446477881006</v>
+        <v>125.3128565738973</v>
       </c>
       <c r="G13">
-        <v>-34.38310519046644</v>
+        <v>-32.77636786188089</v>
       </c>
       <c r="H13">
-        <v>1299.454173182223</v>
+        <v>1201.462449380588</v>
       </c>
       <c r="I13">
-        <v>-1124.020353286565</v>
+        <v>-1105.789016202539</v>
       </c>
       <c r="J13">
-        <v>1416.97687233802</v>
+        <v>1474.896610477988</v>
       </c>
       <c r="K13">
-        <v>2501.911908757896</v>
+        <v>2516.255495676181</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.9890512610341</v>
+        <v>109.6736892500766</v>
       </c>
       <c r="G14">
-        <v>-18.23064668487304</v>
+        <v>-17.4595200304015</v>
       </c>
       <c r="H14">
-        <v>1353.274957081191</v>
+        <v>1340.66445190649</v>
       </c>
       <c r="I14">
-        <v>-1132.542467565144</v>
+        <v>-1125.878124023696</v>
       </c>
       <c r="J14">
-        <v>1464.66909404065</v>
+        <v>1350.310183644637</v>
       </c>
       <c r="K14">
-        <v>2606.502373321909</v>
+        <v>2592.456436489754</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.7620101385781</v>
+        <v>98.27051334397653</v>
       </c>
       <c r="G15">
-        <v>-0.9530251656983897</v>
+        <v>-0.8821255785865362</v>
       </c>
       <c r="H15">
-        <v>1327.058474386601</v>
+        <v>1407.503005250705</v>
       </c>
       <c r="I15">
-        <v>-1044.113012557681</v>
+        <v>-1060.717922128633</v>
       </c>
       <c r="J15">
-        <v>1313.695858327317</v>
+        <v>1404.157021873881</v>
       </c>
       <c r="K15">
-        <v>2677.459460633861</v>
+        <v>2747.40868170198</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.79238114413916</v>
+        <v>93.20261134037197</v>
       </c>
       <c r="G16">
-        <v>15.14556695283121</v>
+        <v>15.10187481116816</v>
       </c>
       <c r="H16">
-        <v>1442.241852745056</v>
+        <v>1458.501360129939</v>
       </c>
       <c r="I16">
-        <v>-1047.132517036336</v>
+        <v>-1010.910489674625</v>
       </c>
       <c r="J16">
-        <v>1351.025691606571</v>
+        <v>1321.301560343673</v>
       </c>
       <c r="K16">
-        <v>2763.72691650329</v>
+        <v>2764.81635942594</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.88185217281209</v>
+        <v>91.14198926044534</v>
       </c>
       <c r="G17">
-        <v>32.99569048401072</v>
+        <v>31.46973439382582</v>
       </c>
       <c r="H17">
-        <v>1477.945453101127</v>
+        <v>1485.347837817685</v>
       </c>
       <c r="I17">
-        <v>-954.5491355351068</v>
+        <v>-967.2042933794387</v>
       </c>
       <c r="J17">
-        <v>1317.405305593933</v>
+        <v>1291.09497553299</v>
       </c>
       <c r="K17">
-        <v>2998.100601253515</v>
+        <v>3031.105278040841</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.45802172964504</v>
+        <v>80.40137717271594</v>
       </c>
       <c r="G18">
-        <v>47.10504089965756</v>
+        <v>48.80783612290595</v>
       </c>
       <c r="H18">
-        <v>1563.714168119061</v>
+        <v>1567.340156319911</v>
       </c>
       <c r="I18">
-        <v>-911.4267472795833</v>
+        <v>-924.7443567256322</v>
       </c>
       <c r="J18">
-        <v>1254.112103826436</v>
+        <v>1265.824822764082</v>
       </c>
       <c r="K18">
-        <v>3120.611661957367</v>
+        <v>3144.309093065619</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.41609415102323</v>
+        <v>76.39071736904083</v>
       </c>
       <c r="G19">
-        <v>67.27311925147175</v>
+        <v>63.34604227595515</v>
       </c>
       <c r="H19">
-        <v>1573.734450020207</v>
+        <v>1572.106705163817</v>
       </c>
       <c r="I19">
-        <v>-850.8298315461382</v>
+        <v>-927.9596144212888</v>
       </c>
       <c r="J19">
-        <v>1201.712762787102</v>
+        <v>1116.46626616457</v>
       </c>
       <c r="K19">
-        <v>3107.678207905788</v>
+        <v>3122.009549344061</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.05743468886907</v>
+        <v>77.54578642571083</v>
       </c>
       <c r="G20">
-        <v>79.44579961196814</v>
+        <v>82.4596957911813</v>
       </c>
       <c r="H20">
-        <v>1551.887922255006</v>
+        <v>1607.795228087577</v>
       </c>
       <c r="I20">
-        <v>-853.1727004100651</v>
+        <v>-840.8131931660033</v>
       </c>
       <c r="J20">
-        <v>1074.756596999676</v>
+        <v>1156.678474273875</v>
       </c>
       <c r="K20">
-        <v>2993.250168922357</v>
+        <v>3124.027330141972</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.87042135699274</v>
+        <v>68.79844010805076</v>
       </c>
       <c r="G21">
-        <v>99.21401133306206</v>
+        <v>102.9973060840352</v>
       </c>
       <c r="H21">
-        <v>1529.180811004555</v>
+        <v>1515.509697265013</v>
       </c>
       <c r="I21">
-        <v>-811.0570838433725</v>
+        <v>-792.1555802354635</v>
       </c>
       <c r="J21">
-        <v>1057.117685364278</v>
+        <v>1092.030693648178</v>
       </c>
       <c r="K21">
-        <v>3051.692761409447</v>
+        <v>3112.221731391728</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.32482829227358</v>
+        <v>66.15786434345893</v>
       </c>
       <c r="G22">
-        <v>112.7169090224048</v>
+        <v>109.8233901887941</v>
       </c>
       <c r="H22">
-        <v>1575.357402767318</v>
+        <v>1562.033881716787</v>
       </c>
       <c r="I22">
-        <v>-770.3253362898793</v>
+        <v>-757.1427999327836</v>
       </c>
       <c r="J22">
-        <v>1011.912548511376</v>
+        <v>997.3536713385381</v>
       </c>
       <c r="K22">
-        <v>3255.27888463012</v>
+        <v>3038.900233662978</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.90011935647088</v>
+        <v>68.08159083958289</v>
       </c>
       <c r="G23">
-        <v>134.5782122875335</v>
+        <v>127.3143501844186</v>
       </c>
       <c r="H23">
-        <v>1675.698076368876</v>
+        <v>1643.278848941668</v>
       </c>
       <c r="I23">
-        <v>-712.4825526496727</v>
+        <v>-681.4696518434159</v>
       </c>
       <c r="J23">
-        <v>996.0430526470924</v>
+        <v>932.0875213022144</v>
       </c>
       <c r="K23">
-        <v>3116.625274775917</v>
+        <v>3237.147674903446</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.0656558672427</v>
+        <v>63.28310350448093</v>
       </c>
       <c r="G24">
-        <v>151.9666093031318</v>
+        <v>142.2121085767857</v>
       </c>
       <c r="H24">
-        <v>1701.624900228022</v>
+        <v>1573.733399323533</v>
       </c>
       <c r="I24">
-        <v>-654.8993498076693</v>
+        <v>-666.2901108123261</v>
       </c>
       <c r="J24">
-        <v>969.4190411967419</v>
+        <v>959.1974104276321</v>
       </c>
       <c r="K24">
-        <v>3183.946941443506</v>
+        <v>3158.733492357691</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.68527852974665</v>
+        <v>60.66775429085409</v>
       </c>
       <c r="G25">
-        <v>165.1215290902199</v>
+        <v>159.5908989767948</v>
       </c>
       <c r="H25">
-        <v>1612.391004755326</v>
+        <v>1608.735299219323</v>
       </c>
       <c r="I25">
-        <v>-623.2729361344695</v>
+        <v>-611.090188616909</v>
       </c>
       <c r="J25">
-        <v>920.0456556837552</v>
+        <v>845.2199215299959</v>
       </c>
       <c r="K25">
-        <v>3104.989006715716</v>
+        <v>3257.366240125948</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.54947856617557</v>
+        <v>58.43131185844269</v>
       </c>
       <c r="G26">
-        <v>183.8032770984418</v>
+        <v>179.5237764448191</v>
       </c>
       <c r="H26">
-        <v>1609.998587627093</v>
+        <v>1711.732604697254</v>
       </c>
       <c r="I26">
-        <v>-567.6721922225718</v>
+        <v>-527.1283320832771</v>
       </c>
       <c r="J26">
-        <v>844.4617825224836</v>
+        <v>808.9582108250124</v>
       </c>
       <c r="K26">
-        <v>3138.890321000335</v>
+        <v>3048.401673143399</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.26120688836115</v>
+        <v>59.09298965868107</v>
       </c>
       <c r="G27">
-        <v>201.2667920312216</v>
+        <v>202.1716100373022</v>
       </c>
       <c r="H27">
-        <v>1726.407217380366</v>
+        <v>1737.994057440861</v>
       </c>
       <c r="I27">
-        <v>-509.9731027105042</v>
+        <v>-483.3231907390117</v>
       </c>
       <c r="J27">
-        <v>791.9023559737218</v>
+        <v>748.651868937579</v>
       </c>
       <c r="K27">
-        <v>3038.458366134956</v>
+        <v>3165.872694866682</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.40299941659779</v>
+        <v>58.09725119072486</v>
       </c>
       <c r="G28">
-        <v>218.1483511295682</v>
+        <v>222.0409752533326</v>
       </c>
       <c r="H28">
-        <v>1805.983821142235</v>
+        <v>1752.882436952082</v>
       </c>
       <c r="I28">
-        <v>-428.9149810212846</v>
+        <v>-451.0359775219684</v>
       </c>
       <c r="J28">
-        <v>723.717216374574</v>
+        <v>730.8406171447518</v>
       </c>
       <c r="K28">
-        <v>3012.82817255083</v>
+        <v>3003.357769110636</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.29052981641018</v>
+        <v>56.02570438453777</v>
       </c>
       <c r="G29">
-        <v>240.4330733894068</v>
+        <v>235.3964460842967</v>
       </c>
       <c r="H29">
-        <v>1789.140527812819</v>
+        <v>1781.193574154794</v>
       </c>
       <c r="I29">
-        <v>-380.9662653367747</v>
+        <v>-376.7719287417946</v>
       </c>
       <c r="J29">
-        <v>661.4798766473036</v>
+        <v>703.3543159787271</v>
       </c>
       <c r="K29">
-        <v>2894.844003777498</v>
+        <v>2767.078022668927</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.38719414170686</v>
+        <v>55.2725645573691</v>
       </c>
       <c r="G30">
-        <v>244.6042529208814</v>
+        <v>242.481259791431</v>
       </c>
       <c r="H30">
-        <v>1688.863521115165</v>
+        <v>1814.723216977069</v>
       </c>
       <c r="I30">
-        <v>-339.3947004535485</v>
+        <v>-323.8052765663697</v>
       </c>
       <c r="J30">
-        <v>666.0705371121213</v>
+        <v>650.4372482843243</v>
       </c>
       <c r="K30">
-        <v>2867.371534971226</v>
+        <v>2756.662255034458</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.48438643263267</v>
+        <v>52.27631087031772</v>
       </c>
       <c r="G31">
-        <v>254.7299625181944</v>
+        <v>269.1543519632738</v>
       </c>
       <c r="H31">
-        <v>1765.692082125024</v>
+        <v>1787.814019535211</v>
       </c>
       <c r="I31">
-        <v>-273.5248322713988</v>
+        <v>-271.0421683695512</v>
       </c>
       <c r="J31">
-        <v>606.574446987669</v>
+        <v>574.1604805187543</v>
       </c>
       <c r="K31">
-        <v>2556.999358479241</v>
+        <v>2566.521502113439</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.47007085401094</v>
+        <v>49.15404829854861</v>
       </c>
       <c r="G32">
-        <v>282.4684866212689</v>
+        <v>288.3687469817542</v>
       </c>
       <c r="H32">
-        <v>1825.627841911714</v>
+        <v>1798.240601696638</v>
       </c>
       <c r="I32">
-        <v>-208.3691858152244</v>
+        <v>-203.9234595326408</v>
       </c>
       <c r="J32">
-        <v>562.2462446964538</v>
+        <v>527.7050915723141</v>
       </c>
       <c r="K32">
-        <v>2631.839067033795</v>
+        <v>2579.550547639753</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.04632766105703</v>
+        <v>48.64405364498106</v>
       </c>
       <c r="G33">
-        <v>291.5427129023229</v>
+        <v>293.6401340584773</v>
       </c>
       <c r="H33">
-        <v>1758.060426867368</v>
+        <v>1727.442394023373</v>
       </c>
       <c r="I33">
-        <v>-145.0754587213714</v>
+        <v>-145.5516181858571</v>
       </c>
       <c r="J33">
-        <v>490.871638009818</v>
+        <v>476.7342369215909</v>
       </c>
       <c r="K33">
-        <v>2299.904305652405</v>
+        <v>2408.370752831774</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.38119146840355</v>
+        <v>50.53479377479553</v>
       </c>
       <c r="G34">
-        <v>325.0929217144208</v>
+        <v>316.0426122479772</v>
       </c>
       <c r="H34">
-        <v>1837.1846239414</v>
+        <v>1788.116411103257</v>
       </c>
       <c r="I34">
-        <v>-85.16680546154998</v>
+        <v>-83.43356536471209</v>
       </c>
       <c r="J34">
-        <v>432.0699075238563</v>
+        <v>435.2751303477635</v>
       </c>
       <c r="K34">
-        <v>2133.788637356587</v>
+        <v>2160.658960979604</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.26417622405699</v>
+        <v>48.25439678798213</v>
       </c>
       <c r="G35">
-        <v>315.9239581749172</v>
+        <v>336.418981649483</v>
       </c>
       <c r="H35">
-        <v>1779.629355695336</v>
+        <v>1874.827974026985</v>
       </c>
       <c r="I35">
-        <v>-17.92164074135522</v>
+        <v>-18.95598632484551</v>
       </c>
       <c r="J35">
-        <v>380.1667320789064</v>
+        <v>385.9333366281599</v>
       </c>
       <c r="K35">
-        <v>1939.413200912599</v>
+        <v>2016.984107686008</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.58692155150279</v>
+        <v>45.83136418208074</v>
       </c>
       <c r="G36">
-        <v>339.0738698423729</v>
+        <v>359.3881413176252</v>
       </c>
       <c r="H36">
-        <v>1876.235124569536</v>
+        <v>1819.02760238425</v>
       </c>
       <c r="I36">
-        <v>46.77407147801195</v>
+        <v>46.58465615417023</v>
       </c>
       <c r="J36">
-        <v>334.1903240762553</v>
+        <v>333.6611418716763</v>
       </c>
       <c r="K36">
-        <v>1818.377198690222</v>
+        <v>1897.845181948098</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.18360488633884</v>
+        <v>44.62822433062891</v>
       </c>
       <c r="G37">
-        <v>370.7797874806425</v>
+        <v>369.1324861790295</v>
       </c>
       <c r="H37">
-        <v>1827.342067391456</v>
+        <v>1919.850483416524</v>
       </c>
       <c r="I37">
-        <v>114.0873182488096</v>
+        <v>115.2510734936595</v>
       </c>
       <c r="J37">
-        <v>300.8245187064884</v>
+        <v>305.4139561254655</v>
       </c>
       <c r="K37">
-        <v>1685.181145570386</v>
+        <v>1680.995582425037</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.19084546536657</v>
+        <v>45.68239684063585</v>
       </c>
       <c r="G38">
-        <v>369.8192759874001</v>
+        <v>379.4910078756012</v>
       </c>
       <c r="H38">
-        <v>1854.362010842605</v>
+        <v>1894.897266543981</v>
       </c>
       <c r="I38">
-        <v>191.681525377803</v>
+        <v>187.5521675848367</v>
       </c>
       <c r="J38">
-        <v>250.005096150492</v>
+        <v>255.4741138647284</v>
       </c>
       <c r="K38">
-        <v>1379.660671712599</v>
+        <v>1454.959668129402</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.3708813963525</v>
+        <v>45.2447303454797</v>
       </c>
       <c r="G39">
-        <v>414.8590883842082</v>
+        <v>395.4450932256241</v>
       </c>
       <c r="H39">
-        <v>1820.335364639927</v>
+        <v>1790.920307180679</v>
       </c>
       <c r="I39">
-        <v>249.6570173791959</v>
+        <v>266.2305059131606</v>
       </c>
       <c r="J39">
-        <v>206.3129984896349</v>
+        <v>197.8033621939726</v>
       </c>
       <c r="K39">
-        <v>1126.385188261517</v>
+        <v>1137.156391387317</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.00474012452096</v>
+        <v>44.94078608911757</v>
       </c>
       <c r="G40">
-        <v>392.5823037029764</v>
+        <v>403.9154262844983</v>
       </c>
       <c r="H40">
-        <v>1824.779114118247</v>
+        <v>1890.2783909936</v>
       </c>
       <c r="I40">
-        <v>323.512987685661</v>
+        <v>327.4586449656106</v>
       </c>
       <c r="J40">
-        <v>153.1629175150942</v>
+        <v>157.1794794348299</v>
       </c>
       <c r="K40">
-        <v>858.6173540733962</v>
+        <v>916.2128083432445</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.87400144514265</v>
+        <v>43.98809168006199</v>
       </c>
       <c r="G41">
-        <v>431.8167004417992</v>
+        <v>407.1124650501703</v>
       </c>
       <c r="H41">
-        <v>1917.264063134352</v>
+        <v>1915.489164671775</v>
       </c>
       <c r="I41">
-        <v>400.0577719618148</v>
+        <v>413.921958442882</v>
       </c>
       <c r="J41">
-        <v>99.2006981306575</v>
+        <v>105.6542635794155</v>
       </c>
       <c r="K41">
-        <v>650.6623857997098</v>
+        <v>592.8453657934828</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.39429898212259</v>
+        <v>43.36467064493188</v>
       </c>
       <c r="G42">
-        <v>423.9003932531118</v>
+        <v>450.0936041103059</v>
       </c>
       <c r="H42">
-        <v>1840.927264931104</v>
+        <v>1982.243222754067</v>
       </c>
       <c r="I42">
-        <v>482.2201017488355</v>
+        <v>461.4372446156299</v>
       </c>
       <c r="J42">
-        <v>52.9867859296986</v>
+        <v>56.12624999239309</v>
       </c>
       <c r="K42">
-        <v>322.7395210205013</v>
+        <v>342.1411758214153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.27614331896618</v>
+        <v>42.56439772698506</v>
       </c>
       <c r="G43">
-        <v>457.8873786406569</v>
+        <v>452.5693346438987</v>
       </c>
       <c r="H43">
-        <v>1883.292990600964</v>
+        <v>1942.28604924138</v>
       </c>
       <c r="I43">
-        <v>570.8054158985013</v>
+        <v>573.873224258725</v>
       </c>
       <c r="J43">
-        <v>5.509510706683034</v>
+        <v>5.125336113487942</v>
       </c>
       <c r="K43">
-        <v>32.22281844744024</v>
+        <v>34.6082649773503</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.7699675441718</v>
+        <v>41.20196459853415</v>
       </c>
       <c r="G44">
-        <v>484.5747454659976</v>
+        <v>463.4271393909394</v>
       </c>
       <c r="H44">
-        <v>1852.980700402577</v>
+        <v>1902.028494447809</v>
       </c>
       <c r="I44">
-        <v>608.8115589483587</v>
+        <v>607.8575628983737</v>
       </c>
       <c r="J44">
-        <v>-41.74299031222819</v>
+        <v>-42.43864798885424</v>
       </c>
       <c r="K44">
-        <v>-281.2929317160953</v>
+        <v>-275.4655031331403</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.95464989529704</v>
+        <v>40.36056039572125</v>
       </c>
       <c r="G45">
-        <v>488.285822344379</v>
+        <v>474.6502476379234</v>
       </c>
       <c r="H45">
-        <v>1992.293865397046</v>
+        <v>1937.365999723171</v>
       </c>
       <c r="I45">
-        <v>735.6368054440649</v>
+        <v>720.3145735918902</v>
       </c>
       <c r="J45">
-        <v>-96.13660288905264</v>
+        <v>-93.73021312783172</v>
       </c>
       <c r="K45">
-        <v>-635.8920487369646</v>
+        <v>-588.2870057984808</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.24128321780164</v>
+        <v>42.00563080655814</v>
       </c>
       <c r="G46">
-        <v>532.0771531094694</v>
+        <v>501.8267457976399</v>
       </c>
       <c r="H46">
-        <v>1848.772021933399</v>
+        <v>1989.235515669083</v>
       </c>
       <c r="I46">
-        <v>776.6238104575459</v>
+        <v>766.4098604339416</v>
       </c>
       <c r="J46">
-        <v>-144.5001038755655</v>
+        <v>-133.6834310193194</v>
       </c>
       <c r="K46">
-        <v>-931.9190844581872</v>
+        <v>-935.7180582905139</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.27199149233068</v>
+        <v>39.2570417589391</v>
       </c>
       <c r="G47">
-        <v>542.1899129948439</v>
+        <v>518.9281820516037</v>
       </c>
       <c r="H47">
-        <v>1876.168693328044</v>
+        <v>1955.805895893529</v>
       </c>
       <c r="I47">
-        <v>889.2382606300239</v>
+        <v>899.1837179312948</v>
       </c>
       <c r="J47">
-        <v>-181.3604895509912</v>
+        <v>-196.3220902294025</v>
       </c>
       <c r="K47">
-        <v>-1271.532058473347</v>
+        <v>-1369.421123357286</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.63550051041954</v>
+        <v>39.23024881599707</v>
       </c>
       <c r="G48">
-        <v>568.6940405321128</v>
+        <v>553.847946919096</v>
       </c>
       <c r="H48">
-        <v>2003.716799813926</v>
+        <v>1927.664508541714</v>
       </c>
       <c r="I48">
-        <v>1027.529305627414</v>
+        <v>973.9643714030111</v>
       </c>
       <c r="J48">
-        <v>-237.3526869231693</v>
+        <v>-227.4878455710171</v>
       </c>
       <c r="K48">
-        <v>-1771.021193502838</v>
+        <v>-1686.002237723652</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.6510039437598</v>
+        <v>40.13711804889391</v>
       </c>
       <c r="G49">
-        <v>557.5484929866576</v>
+        <v>579.5402705943853</v>
       </c>
       <c r="H49">
-        <v>1997.872053973739</v>
+        <v>2027.317799609356</v>
       </c>
       <c r="I49">
-        <v>1105.682559751493</v>
+        <v>1106.506733106053</v>
       </c>
       <c r="J49">
-        <v>-275.5547911537362</v>
+        <v>-297.3390958270943</v>
       </c>
       <c r="K49">
-        <v>-2010.989085940735</v>
+        <v>-2137.308515795964</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.34280976646524</v>
+        <v>38.32642522175927</v>
       </c>
       <c r="G50">
-        <v>574.0718213121986</v>
+        <v>573.9010177349971</v>
       </c>
       <c r="H50">
-        <v>1948.392334131282</v>
+        <v>1906.634729630261</v>
       </c>
       <c r="I50">
-        <v>1155.094708092236</v>
+        <v>1143.896959062307</v>
       </c>
       <c r="J50">
-        <v>-331.2288711862972</v>
+        <v>-327.5786311300736</v>
       </c>
       <c r="K50">
-        <v>-2618.737572512539</v>
+        <v>-2496.02354573038</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.53444506200013</v>
+        <v>37.27802852020059</v>
       </c>
       <c r="G51">
-        <v>587.7741690071117</v>
+        <v>607.8129436041256</v>
       </c>
       <c r="H51">
-        <v>1918.547827348564</v>
+        <v>1925.131854724546</v>
       </c>
       <c r="I51">
-        <v>1306.592085982333</v>
+        <v>1201.088309291879</v>
       </c>
       <c r="J51">
-        <v>-370.2386293778009</v>
+        <v>-369.3302409007815</v>
       </c>
       <c r="K51">
-        <v>-2910.968920697698</v>
+        <v>-2941.414846157429</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.38688721307412</v>
+        <v>37.88801643091212</v>
       </c>
       <c r="G52">
-        <v>634.1948024923863</v>
+        <v>584.5991605373182</v>
       </c>
       <c r="H52">
-        <v>1899.162205888222</v>
+        <v>1931.698552617571</v>
       </c>
       <c r="I52">
-        <v>1391.562150618247</v>
+        <v>1383.265333540858</v>
       </c>
       <c r="J52">
-        <v>-454.0330480547782</v>
+        <v>-426.9534637455004</v>
       </c>
       <c r="K52">
-        <v>-3459.567729919149</v>
+        <v>-3446.013413298062</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.49407537723933</v>
+        <v>38.5695225723306</v>
       </c>
       <c r="G53">
-        <v>639.9740781817277</v>
+        <v>597.1038906879434</v>
       </c>
       <c r="H53">
-        <v>1954.001662223696</v>
+        <v>1879.299550461183</v>
       </c>
       <c r="I53">
-        <v>1423.114575753609</v>
+        <v>1488.063829788111</v>
       </c>
       <c r="J53">
-        <v>-463.6218296454166</v>
+        <v>-479.6957469689733</v>
       </c>
       <c r="K53">
-        <v>-3897.277143796313</v>
+        <v>-3988.431524880568</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.76696478926868</v>
+        <v>35.43600358941181</v>
       </c>
       <c r="G54">
-        <v>638.214467309777</v>
+        <v>644.3134031448792</v>
       </c>
       <c r="H54">
-        <v>1895.787382261118</v>
+        <v>1928.771092103293</v>
       </c>
       <c r="I54">
-        <v>1541.951448162063</v>
+        <v>1534.841966593601</v>
       </c>
       <c r="J54">
-        <v>-541.5768325320477</v>
+        <v>-511.506083547475</v>
       </c>
       <c r="K54">
-        <v>-4233.873907717427</v>
+        <v>-4287.495837602765</v>
       </c>
     </row>
   </sheetData>
